--- a/题库-朱玲.xlsx
+++ b/题库-朱玲.xlsx
@@ -1,87 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>题干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestionBank</t>
-  </si>
-  <si>
-    <t>QuestionBankVo</t>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 判断题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 选择题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 填空题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：错  1：对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019年《董事会工作报告》的指导思想是以（）为思想基础的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民主、公平</t>
@@ -96,6 +53,9 @@
     <t>民主、透明、公平、正义</t>
   </si>
   <si>
+    <t>2019年《董事会工作报告》的指导思想中的主线是（）</t>
+  </si>
+  <si>
     <t>标准化</t>
   </si>
   <si>
@@ -108,151 +68,107 @@
     <t>盈利</t>
   </si>
   <si>
-    <t>盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2019年《董事会工作报告》的指导思想中全局性的中心问题是（）</t>
   </si>
   <si>
     <t>生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年《董事会工作报告》的指导思想中的主线董事长在《坚决彻底地反掉“假、虚、浮”》这篇文章中提出的“浮”的常见表现有（）</t>
+  </si>
+  <si>
+    <t>三种</t>
+  </si>
+  <si>
+    <t>四种</t>
+  </si>
+  <si>
+    <t>五种</t>
   </si>
   <si>
     <t>六种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准化路线图的内容有（）条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年《董事会工作报告》的指导思想中的主线董事长在《坚决彻底地反掉“假、虚、浮”》这篇文章中提出的“浮”的常见表现有（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“四上四下”内容首先是（）</t>
   </si>
   <si>
     <t>以上教下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以上率下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以上督下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以上御下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“四上四下”内容首先是（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年《董事会工作报告》的指导思想中的主线是（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年《董事会工作报告》的指导思想中全局性的中心问题是（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推进标准化的核心是（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效率和效益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盈利和管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效益和管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效率和盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责权利三原则中“改革基本原则”内容是整合资源、精简层级、优化流程、下行责权、加强监督。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责权利三原则中“绩效管理原则”内容是责权到岗、考核到人、联系薪酬、绩效排序、末位淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>董事长在标准化路线图中讲到根植“四大基因”的方法中提到要坚持民主、透明、公平的思想基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责权利三原则中“流程设计原则”内容是集中的权利分散化，隐蔽的权利公开化，把组织结构放平，把工作流程拉直，推倒部门墙，形成环套环链接，实现职能化领导，无级别响应。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>董事长讲的“四上四下”内容是以上率下、以上教下、以上督下、以上御下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>简单地说，该干的也干了但没有下功夫干好就是“浮”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“新三化”的内容是支出（费用）效益化、效益指标化、指标先进化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>推进标准化的方法是必须紧密结合本单位的实际，依</t>
     </r>
     <r>
@@ -260,7 +176,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>靠</t>
@@ -270,118 +185,112 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>标准化的建设及约束，把本单位的工作职责、当前任务、存在的问题、下步的发展方向和发展要求，向纵深领域深化、完善</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四个“三大”是三大损失、三大错误、三大风险、三大载体。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“三大损失”是生产事故造成损失；固定资产投资设计失误和建设浪费损失；贪污导致损失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准化路线图的内容是第一，___________；第二，要坚持一条路径；第三，要突出一条主线；第四，要采用最笨办法；第五，_____________。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要根植四大基因、要实现管理三化</t>
   </si>
   <si>
     <t>责权利三原则中“改革基本原则”内容是整合资源、精简层级、优化流程、下行责权、________、_______.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强监督、服务一线</t>
   </si>
   <si>
     <t>“新三化”的内容是______、_____、_____.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出（费用）效益化、效益指标化、指标先进化</t>
   </si>
   <si>
     <t>推进标准化的具体要求是_____、_____、_____.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想正派统一、行为科学规范、物态安全有效</t>
   </si>
   <si>
     <t>四个“三大”是_____、____、_____、_____。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三大损失、三大错误、三大风险、三大载体</t>
   </si>
   <si>
     <t>“三大损失”是_____、_____、_____。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产事故造成损失、固定资产投资设计失误和建设浪费损失、贪污腐败导致损失</t>
   </si>
   <si>
     <t>“三大风险”是_____、_______、技术创新能力不足风险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆率风险、基础管理薄弱风险</t>
   </si>
   <si>
     <t>“责权利三原则”是_______、_______、_______。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革基本原则、绩效管理原则、流程设计原则</t>
   </si>
   <si>
     <t>“七大底线”是___、___、___、___、___、___、___。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全、环保、形象、保密、质量、能耗、诚信</t>
   </si>
   <si>
     <t>董事长指出衡量指标化工作推进好坏的重要因素是_____、______、______。</t>
   </si>
   <si>
-    <t>要根植四大基因、要实现管理三化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加强监督、服务一线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出（费用）效益化、效益指标化、指标先进化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思想正派统一、行为科学规范、物态安全有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三大损失、三大错误、三大风险、三大载体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产事故造成损失、固定资产投资设计失误和建设浪费损失、贪污腐败导致损失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杠杆率风险、基础管理薄弱风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改革基本原则、绩效管理原则、流程设计原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全、环保、形象、保密、质量、能耗、诚信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三性、二量、一率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionBank</t>
+  </si>
+  <si>
+    <t>QuestionBankVo</t>
+  </si>
+  <si>
+    <t>0 判断题</t>
+  </si>
+  <si>
+    <t>0：错  1：对</t>
+  </si>
+  <si>
+    <t>1 选择题</t>
+  </si>
+  <si>
+    <t>2 填空题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -389,41 +298,375 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -431,42 +674,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -480,21 +1009,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3941AF3-B477-463B-B03D-F1E83FD16580}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152525" y="1914525"/>
-          <a:ext cx="1514475" cy="0"/>
+          <a:ext cx="1755140" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -533,21 +1056,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4235132F-41AD-4C28-9987-E609529C8C38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267199" y="447675"/>
-          <a:ext cx="4191001" cy="3743325"/>
+          <a:off x="4504690" y="447675"/>
+          <a:ext cx="4191635" cy="3743325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,20 +1110,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形: 圆角 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B558B8FA-95E2-4631-80BD-17776EFB09B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="647700"/>
+          <a:off x="4876800" y="647700"/>
           <a:ext cx="2505075" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -657,20 +1168,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形: 圆角 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0DB7D0C-E6BE-4010-812F-0EA9F7D2D62E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="矩形: 圆角 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="857250"/>
+          <a:off x="5734050" y="857250"/>
           <a:ext cx="1314450" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -710,6 +1215,15 @@
             </a:rPr>
             <a:t>optionsId</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -725,6 +1239,15 @@
             </a:rPr>
             <a:t>op</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -740,6 +1263,15 @@
             </a:rPr>
             <a:t>questionBankId</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -774,20 +1306,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形: 圆角 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7EB646E-D689-4100-A377-7881A6D45869}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="2390775"/>
+          <a:off x="4886325" y="2390775"/>
           <a:ext cx="2943225" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -827,6 +1353,15 @@
             </a:rPr>
             <a:t>questionBankId</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -842,6 +1377,15 @@
             </a:rPr>
             <a:t>answer</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -857,6 +1401,15 @@
             </a:rPr>
             <a:t>testsType</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -872,6 +1425,15 @@
             </a:rPr>
             <a:t>state</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1148,32 +1710,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.775" customWidth="1"/>
+    <col min="3" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="24.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="77.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,460 +1753,461 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="G20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3">
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A11:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.2166666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>